--- a/xlsx/黑色风暴事件_intext.xlsx
+++ b/xlsx/黑色风暴事件_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>黑色风暴事件</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_黑色风暴事件</t>
+    <t>奥克拉荷马州</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_黑色风暴事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E9%A6%AC%E9%BE%8D%E7%B8%A3_(%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E)</t>
   </si>
   <si>
-    <t>錫馬龍縣 (奧克拉荷馬州)</t>
+    <t>锡马龙县 (奥克拉荷马州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%B0%98%E6%9A%B4</t>
@@ -107,9 +107,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A9%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奥克拉荷马州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
   </si>
   <si>
@@ -137,13 +134,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8F%B2%E5%9D%A6%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·史坦貝克</t>
+    <t>约翰·史坦贝克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%BC%A0%E4%B9%8B%E9%96%93</t>
   </si>
   <si>
-    <t>人鼠之間</t>
+    <t>人鼠之间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%A4%E6%80%92%E7%9A%84%E8%91%A1%E8%90%84</t>
@@ -173,13 +170,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>聯邦政府</t>
+    <t>联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%9D</t>
   </si>
   <si>
-    <t>畝</t>
+    <t>亩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E6%9A%B4</t>
@@ -968,7 +965,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -994,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1023,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1052,10 +1049,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1081,10 +1078,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1110,10 +1107,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1139,10 +1136,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1168,10 +1165,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1197,10 +1194,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1226,10 +1223,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1255,10 +1252,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -1284,10 +1281,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1313,10 +1310,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1342,10 +1339,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>15</v>
@@ -1371,10 +1368,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
